--- a/System_Modeling/course_work_folder/assets/verification_T2_freez.xlsx
+++ b/System_Modeling/course_work_folder/assets/verification_T2_freez.xlsx
@@ -704,7 +704,7 @@
         <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>25473.24000000007</v>
+        <v>25413.36000000007</v>
       </c>
       <c r="N5" t="n">
         <v>95</v>
@@ -713,7 +713,7 @@
         <v>0.0019</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04017</v>
+        <v>0.04025</v>
       </c>
     </row>
     <row r="6">
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2339,13 +2339,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I38" t="n">
-        <v>58.68</v>
+        <v>59.4</v>
       </c>
       <c r="J38" t="n">
-        <v>28.68</v>
+        <v>29.4</v>
       </c>
       <c r="K38" t="n">
         <v>0.04</v>
@@ -2354,16 +2354,16 @@
         <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>24586.20000000011</v>
+        <v>24592.80000000015</v>
       </c>
       <c r="N38" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0018</v>
+        <v>0.0019</v>
       </c>
       <c r="P38" t="n">
-        <v>0.03871</v>
+        <v>0.04113</v>
       </c>
     </row>
     <row r="39">
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2389,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I39" t="n">
-        <v>59.4</v>
+        <v>58.68</v>
       </c>
       <c r="J39" t="n">
-        <v>29.4</v>
+        <v>28.68</v>
       </c>
       <c r="K39" t="n">
         <v>0.04</v>
@@ -2404,16 +2404,16 @@
         <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>24533.40000000015</v>
+        <v>24586.20000000011</v>
       </c>
       <c r="N39" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
       <c r="P39" t="n">
-        <v>0.04121</v>
+        <v>0.03871</v>
       </c>
     </row>
     <row r="40">
@@ -2660,10 +2660,10 @@
         <v>95</v>
       </c>
       <c r="O44" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="P44" t="n">
-        <v>0.04348</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="45">
@@ -2760,10 +2760,10 @@
         <v>95</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0027</v>
+        <v>0.0024</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0587</v>
+        <v>0.05217</v>
       </c>
     </row>
     <row r="47">
@@ -2804,7 +2804,7 @@
         <v>10000</v>
       </c>
       <c r="M47" t="n">
-        <v>24354.72000000015</v>
+        <v>24413.28000000015</v>
       </c>
       <c r="N47" t="n">
         <v>90</v>
@@ -2813,7 +2813,7 @@
         <v>0.0018</v>
       </c>
       <c r="P47" t="n">
-        <v>0.03896</v>
+        <v>0.03888</v>
       </c>
     </row>
     <row r="48">
@@ -2860,10 +2860,10 @@
         <v>95</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0026</v>
+        <v>0.0025</v>
       </c>
       <c r="P48" t="n">
-        <v>0.05664</v>
+        <v>0.05447</v>
       </c>
     </row>
     <row r="49">
@@ -2910,10 +2910,10 @@
         <v>90</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0018</v>
+        <v>0.0019</v>
       </c>
       <c r="P49" t="n">
-        <v>0.03905</v>
+        <v>0.04121</v>
       </c>
     </row>
     <row r="50">
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2939,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I50" t="n">
-        <v>58.48</v>
+        <v>58.44</v>
       </c>
       <c r="J50" t="n">
-        <v>28.48</v>
+        <v>28.44</v>
       </c>
       <c r="K50" t="n">
         <v>0.04</v>
@@ -2954,16 +2954,16 @@
         <v>10000</v>
       </c>
       <c r="M50" t="n">
-        <v>24259.27999999984</v>
+        <v>24240.83999999985</v>
       </c>
       <c r="N50" t="n">
         <v>90</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0018</v>
+        <v>0.0024</v>
       </c>
       <c r="P50" t="n">
-        <v>0.03905</v>
+        <v>0.05206</v>
       </c>
     </row>
     <row r="51">
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" t="n">
-        <v>58.44</v>
+        <v>58.48</v>
       </c>
       <c r="J51" t="n">
-        <v>28.44</v>
+        <v>28.48</v>
       </c>
       <c r="K51" t="n">
         <v>0.04</v>
@@ -3004,16 +3004,16 @@
         <v>10000</v>
       </c>
       <c r="M51" t="n">
-        <v>24240.83999999985</v>
+        <v>24200.79999999984</v>
       </c>
       <c r="N51" t="n">
         <v>90</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0021</v>
+        <v>0.0019</v>
       </c>
       <c r="P51" t="n">
-        <v>0.04555</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="52">
